--- a/biology/Microbiologie/Galerie_API/Galerie_API.xlsx
+++ b/biology/Microbiologie/Galerie_API/Galerie_API.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une galerie API (Appareils et Procédés d'Identification) est un ensemble de cupules prêts à l’emploi permettant l'identification de micro-organismes par la réalisation rapide et facile de tests biochimiques miniaturisés.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La première galerie API apparue dans le monde de la microbiologie a été la galerie Api 20E destinée à l'identification des entérobactéries. Les tests conventionnels d'identification bactérienne utilisés jusque-là en tubes y sont miniaturisés, l'inoculum bactérien est standardisé. Étendu à l'identification d'autres micro-organismes, ce principe a généré tout une gamme de galeries :
 API® 20 NE ou API® 32 GN pour les bacilles à Gram négatif oxydase positif ;
@@ -551,7 +565,9 @@
           <t>Identification par galerie API</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les galeries Api utilisent plusieurs types de tests : 
 étude de l'utilisation de divers glucides (par fermentation ou respiration),
@@ -594,7 +610,9 @@
           <t>Extensions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La miniaturisation des tests biochimiques a conduit la société API à proposer le même type de système pour l'antibiogramme (ATB).
 </t>
